--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.022221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.022221.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1535,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4055,12 +4055,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4093,12 +4093,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4853,12 +4853,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5043,12 +5043,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5309,12 +5309,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6257,12 +6257,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6333,12 +6333,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6751,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6865,12 +6865,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6979,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7169,12 +7169,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7435,12 +7435,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7587,12 +7587,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7663,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7701,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7739,12 +7739,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8157,12 +8157,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8537,12 +8537,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8841,12 +8841,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9107,12 +9107,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9183,12 +9183,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9297,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9563,12 +9563,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9791,12 +9791,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10475,12 +10475,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11045,12 +11045,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11159,12 +11159,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11463,12 +11463,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13173,12 +13173,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13249,12 +13249,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
